--- a/DA_damage.xlsx
+++ b/DA_damage.xlsx
@@ -179,11 +179,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -199,12 +200,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -256,7 +251,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -265,7 +260,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -289,572 +288,544 @@
   <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C50"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="n">
-        <v>40.287895484169</v>
-      </c>
-      <c r="C1" s="0" t="n">
-        <v>-80.2660280624688</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="n">
+        <v>40.43531389</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>-79.91647222</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>50.3339789127395</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>-79.7081461530248</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="1" t="n">
+        <v>40.43463611</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>-79.91640556</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>40.4346226675943</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>-79.9160293459149</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1" t="n">
+        <v>40.43460833</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>-79.91562778</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>40.4346182450755</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>-79.9155578217458</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1" t="n">
+        <v>40.43460833</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>-79.91541944</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>40.4345461850186</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>-79.9155589795432</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="1" t="n">
+        <v>40.43486111</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>-79.91494722</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>40.4345461850186</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>-79.9155589795432</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="1" t="n">
+        <v>40.43457778</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>-79.91513889</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>40.4345461850186</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>-79.9155589795432</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="1" t="n">
+        <v>40.434925</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>-79.91473333</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>40.4345461850186</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>-79.9155589795432</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="1" t="n">
+        <v>40.43471389</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>-79.91480278</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>40.434879462774</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>-79.9155536246949</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="1" t="n">
+        <v>40.43451389</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>-79.91438333</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>40.4394557773407</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>-80.6565384126038</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="1" t="n">
+        <v>40.43057222</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>-79.92974722</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>40.4353751808445</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>-79.913659257891</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="1" t="n">
+        <v>40.43527222</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>-79.91361944</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>40.4354472408457</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>-79.9136580980316</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="1" t="n">
+        <v>40.43540278</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>-79.91364167</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>40.4353495984107</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>-79.9138129397413</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="1" t="n">
+        <v>40.43536667</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>-79.91373333</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>40.4352321685966</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>-79.9137794596258</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>40.434763778536</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>-79.9137869977376</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>40.4345684930375</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>-79.9140966771651</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>40.4346681975682</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>-79.9151207932825</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>40.4346681975682</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>-79.9151207932825</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>40.4350941526842</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>-79.9163518926702</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>40.4353460313919</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>-79.9163124785458</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>40.4304901668026</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>-79.9298418718659</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="1" t="n">
+        <v>40.43050278</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>-79.92976389</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="n">
-        <v>40.4301262629432</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>-79.9294586004105</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="1" t="n">
+        <v>40.43044722</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>-79.92977222</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>40.4299899487892</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>-79.9293310822799</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="1" t="n">
+        <v>40.42985556</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>-79.92926111</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>40.4297893805073</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>-79.9290749043822</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="1" t="n">
+        <v>40.42976667</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>-79.92912222</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>40.4298158571655</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>-79.9290155391076</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="1" t="n">
+        <v>40.42969167</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>-79.9291</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="0" t="n">
-        <v>40.42973358786</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>-79.9288871649265</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="1" t="n">
+        <v>40.42968056</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>-79.92883333</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="0" t="n">
-        <v>40.4296518645496</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>-79.9288177274944</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="1" t="n">
+        <v>40.42973056</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>-79.92890278</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="0" t="n">
-        <v>40.4295061051956</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>-79.9286432054508</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="1" t="n">
+        <v>40.42950556</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>-79.92860278</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="0" t="n">
-        <v>40.4294766789343</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>-79.9283843146857</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="1" t="n">
+        <v>40.4294375</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>-79.92832917</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="0" t="n">
-        <v>40.4294766789343</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>-79.9283843146857</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="1" t="n">
+        <v>40.42947833</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>-79.92838167</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="0" t="n">
-        <v>40.4292831009159</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>-79.9288825237044</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="1" t="n">
+        <v>40.42930556</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>-79.92770278</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="0" t="n">
-        <v>40.4294272217924</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>-79.9288802369765</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="1" t="n">
+        <v>40.42939444</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>-79.92773333</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="0" t="n">
-        <v>40.4294272217924</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>-79.9288802369765</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="1" t="n">
+        <v>40.42941667</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>-79.92775833</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="0" t="n">
-        <v>40.4294647207149</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>-79.9280662018562</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="1" t="n">
+        <v>40.42945</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>-79.92788611</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="0" t="n">
-        <v>40.4294831730106</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>-79.928113064816</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="1" t="n">
+        <v>40.42963056</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>-79.92807778</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="0" t="n">
-        <v>40.4295741228606</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>-79.9282059327442</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="1" t="n">
+        <v>40.42946111</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>-79.92813889</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="0" t="n">
-        <v>40.4296934505126</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>-79.9274731185162</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="1" t="n">
+        <v>40.42970556</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>-79.92862778</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="0" t="n">
-        <v>40.429860348901</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>-79.9289558879608</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="1" t="n">
+        <v>40.42982778</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>-79.92880278</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="0" t="n">
-        <v>40.4300335672201</v>
-      </c>
-      <c r="C39" s="0" t="n">
-        <v>-79.9291771323375</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="1" t="n">
+        <v>40.43003194</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>-79.92910278</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="0" t="n">
-        <v>40.4301337421449</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>-79.9292934343328</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="1" t="n">
+        <v>40.43016111</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>-79.92943611</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="0" t="n">
-        <v>40.4301337421449</v>
-      </c>
-      <c r="C41" s="0" t="n">
-        <v>-79.9292934343328</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="1" t="n">
+        <v>40.43021389</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>-79.929375</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="0" t="n">
-        <v>40.4303248657877</v>
-      </c>
-      <c r="C42" s="0" t="n">
-        <v>-79.9295026073814</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="1" t="n">
+        <v>40.43057222</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>-79.92971111</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="0" t="n">
-        <v>40.4307139370029</v>
-      </c>
-      <c r="C43" s="0" t="n">
-        <v>-79.9296850647012</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="1" t="n">
+        <v>40.43084444</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>-79.92970278</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="0" t="n">
-        <v>40.4307139370029</v>
-      </c>
-      <c r="C44" s="0" t="n">
-        <v>-79.9296850647012</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="1" t="n">
+        <v>40.43075278</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>-79.92968889</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="0" t="n">
-        <v>40.4307728417717</v>
-      </c>
-      <c r="C45" s="0" t="n">
-        <v>-79.929236140501</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="1" t="n">
+        <v>40.43095</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>-79.92930556</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="0" t="n">
-        <v>40.4307728417717</v>
-      </c>
-      <c r="C46" s="0" t="n">
-        <v>-79.929236140501</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="1" t="n">
+        <v>40.43098889</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>-79.92912222</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="0" t="n">
-        <v>40.4307873623806</v>
-      </c>
-      <c r="C47" s="0" t="n">
-        <v>-79.9288586551684</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="1" t="n">
+        <v>40.43081389</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>-79.928825</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="0" t="n">
-        <v>40.4309151063202</v>
-      </c>
-      <c r="C48" s="0" t="n">
-        <v>-79.9290334667528</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="1" t="n">
+        <v>40.43081389</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>-79.92893889</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="0" t="n">
-        <v>40.4308897215965</v>
-      </c>
-      <c r="C49" s="0" t="n">
-        <v>-79.9292107080417</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="1" t="n">
+        <v>40.43088889</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>-79.929</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="0" t="n">
-        <v>40.4308470856408</v>
-      </c>
-      <c r="C50" s="0" t="n">
-        <v>-79.929470747411</v>
+      <c r="B50" s="1" t="n">
+        <v>40.43078611</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>-79.92945</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2"/>
+      <c r="A51" s="3"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2"/>
+      <c r="A52" s="3"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2"/>
+      <c r="A53" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/DA_damage.xlsx
+++ b/DA_damage.xlsx
@@ -251,17 +251,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -288,13 +284,10 @@
   <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -439,54 +432,82 @@
         <v>-79.91373333</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="n">
+        <v>40.435232</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>-79.9137794596383</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="n">
+        <v>40.434763</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>-79.9137869977501</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="n">
+        <v>40.434568</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>-79.9140966771776</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="n">
+        <v>40.434668</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>-79.9151207932949</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="n">
+        <v>40.434668</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>-79.9151207932949</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="n">
+        <v>40.435094</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>-79.9163518926827</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="0" t="n">
+        <v>40.435346</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>-79.9163124785583</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
@@ -819,13 +840,13 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3"/>
+      <c r="A51" s="2"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3"/>
+      <c r="A52" s="2"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3"/>
+      <c r="A53" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
